--- a/doc/MEMO Übersicht .xlsx
+++ b/doc/MEMO Übersicht .xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Arbeitsauftrag\MEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\user_redir\flsc920f\Documents\Dokumente Lokal\Projekte\Memo\git\memo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C561D2B0-67A8-440C-A52D-F7C8C2993F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD46BD-C341-4EEF-B854-E33CFD311DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A4580854-2146-471D-9A11-A40043B95E0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A4580854-2146-471D-9A11-A40043B95E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,9 +194,6 @@
     <t>dynamischer</t>
   </si>
   <si>
-    <t>Adafuit 0x4A</t>
-  </si>
-  <si>
     <t>Adafuit 0x49</t>
   </si>
   <si>
@@ -205,6 +201,9 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>Adafuit 0x4b</t>
   </si>
 </sst>
 </file>
@@ -628,7 +627,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,36 +848,36 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
